--- a/Unity/ExcelConfig/CharacterConfig.xlsx
+++ b/Unity/ExcelConfig/CharacterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Project\U3D\NotRPG\Unity\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA136277-E73E-46F3-82FF-1EFE0A94AF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F43B8A-E733-4BBA-BB70-397CFEDE92DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rotationSensitivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#旋转灵敏度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxPitchUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,6 +44,66 @@
   </si>
   <si>
     <t>maxPitchDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumpForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotationSensitivityX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotationSensitivityY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#水平旋转灵敏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯仰旋转灵敏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面检查偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面检查盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groundCheckBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groundCheckOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,20 +430,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,38 +458,98 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>85</v>
+      </c>
+      <c r="D4">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/ExcelConfig/CharacterConfig.xlsx
+++ b/Unity/ExcelConfig/CharacterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Project\U3D\NotRPG\Unity\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F43B8A-E733-4BBA-BB70-397CFEDE92DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28B5CC-CF57-4376-B9ED-6B8C7CE6EB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0,0,0)</t>
+    <t>(0,1,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Unity/ExcelConfig/CharacterConfig.xlsx
+++ b/Unity/ExcelConfig/CharacterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Project\U3D\NotRPG\Unity\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28B5CC-CF57-4376-B9ED-6B8C7CE6EB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4012FE51-D303-4A08-901E-3D47B56FCC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,98 @@
   </si>
   <si>
     <t>(0,1,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHungry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大饥饿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜行速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始物理抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initPhysicDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initMagicDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始法术抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trueDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoveryHungry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复生命的饥饿度最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每x点饥饿回y点血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每x秒恢复一次生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -446,9 +538,16 @@
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +572,38 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -499,8 +628,38 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -525,8 +684,38 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -550,6 +739,36 @@
       </c>
       <c r="H4" t="s">
         <v>19</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
